--- a/Mypaper/tables/4.4被调研者基本信息.xlsx
+++ b/Mypaper/tables/4.4被调研者基本信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12450"/>
+    <workbookView windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,12 +95,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,30 +110,75 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -147,68 +192,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -222,21 +208,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -245,16 +216,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,192 +262,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -463,70 +456,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -535,119 +471,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="hair">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="hair">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="hair">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -667,37 +531,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,7 +549,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,254 +568,167 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1326,7 +1082,7 @@
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="A1" sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1341,214 +1097,214 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="19" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="1">
         <v>145</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="2">
         <v>0.5992</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="1">
         <v>97</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="2">
         <v>0.4008</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="1">
         <v>86</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="2">
         <v>0.3554</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14" t="s">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="1">
         <v>87</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="2">
         <v>0.3595</v>
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="1">
         <v>48</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="2">
         <v>0.1983</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="17"/>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="1">
         <v>21</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="2">
         <v>0.0868</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="20">
+      <c r="C8" s="1">
         <v>49</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="2">
         <v>0.2025</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="1">
         <v>126</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="2">
         <v>0.5207</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="1">
         <v>58</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="2">
         <v>0.2397</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="17"/>
-      <c r="B11" s="8" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="1">
         <v>9</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="2">
         <v>0.0371</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="1">
         <v>43</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="2">
         <v>0.1777</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="1">
         <v>106</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="2">
         <v>0.438</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="22" t="s">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="1">
         <v>47</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="2">
         <v>0.1942</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="13"/>
-      <c r="B15" s="22" t="s">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="1">
         <v>13</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="2">
         <v>0.0537</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="13"/>
-      <c r="B16" s="22" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="1">
         <v>14</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="2">
         <v>0.0579</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="17"/>
-      <c r="B17" s="8" t="s">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="1">
         <v>19</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="2">
         <v>0.0785</v>
       </c>
     </row>
